--- a/Project/public/data/Testdata.xlsx
+++ b/Project/public/data/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26625" windowHeight="10485"/>
+    <workbookView windowWidth="21000" windowHeight="8435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -352,10 +352,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -410,6 +410,105 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,51 +530,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -484,66 +538,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -560,187 +560,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,13 +806,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,15 +826,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,41 +845,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,6 +868,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -911,149 +911,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1096,13 +1096,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1426,26 +1420,26 @@
   <sheetPr/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.87962962962963" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.37962962962963" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.1296296296296" style="2" customWidth="1"/>
     <col min="4" max="4" width="44" style="2" customWidth="1"/>
-    <col min="5" max="5" width="42.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.1296296296296" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.8796296296296" style="2" customWidth="1"/>
     <col min="8" max="8" width="27.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="21.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.8796296296296" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.25" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="17.4" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1477,7 +1471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="33" spans="1:9">
+    <row r="2" s="2" customFormat="1" ht="46.8" spans="1:9">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1506,7 +1500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="33" spans="1:9">
+    <row r="3" s="2" customFormat="1" ht="46.8" spans="1:9">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1533,7 +1527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" ht="33" spans="1:9">
+    <row r="4" ht="31.2" spans="1:9">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1562,7 +1556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="33" spans="1:9">
+    <row r="5" s="2" customFormat="1" ht="31.2" spans="1:9">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1589,7 +1583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="33" spans="1:9">
+    <row r="6" s="2" customFormat="1" ht="31.2" spans="1:9">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1616,7 +1610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="33" spans="1:9">
+    <row r="7" s="2" customFormat="1" ht="31.2" spans="1:9">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1643,7 +1637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="33" spans="1:9">
+    <row r="8" s="2" customFormat="1" ht="31.2" spans="1:9">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1670,7 +1664,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" ht="49.5" spans="1:9">
+    <row r="9" ht="46.8" spans="1:9">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1699,7 +1693,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="49.5" spans="1:9">
+    <row r="10" s="2" customFormat="1" ht="46.8" spans="1:9">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1726,7 +1720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="49.5" spans="1:10">
+    <row r="11" s="2" customFormat="1" ht="46.8" spans="1:10">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1756,7 +1750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="49.5" spans="1:9">
+    <row r="12" s="2" customFormat="1" ht="46.8" spans="1:9">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1783,7 +1777,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="132" spans="1:9">
+    <row r="13" s="2" customFormat="1" ht="124.8" spans="1:9">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1812,7 +1806,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="132" spans="1:9">
+    <row r="14" s="2" customFormat="1" ht="124.8" spans="1:9">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1839,7 +1833,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="132" spans="1:9">
+    <row r="15" s="2" customFormat="1" ht="124.8" spans="1:9">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1866,7 +1860,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="49.5" spans="1:9">
+    <row r="16" s="2" customFormat="1" ht="46.8" spans="1:9">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1893,7 +1887,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" ht="132" spans="1:9">
+    <row r="17" ht="124.8" spans="1:9">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1920,7 +1914,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" ht="49.5" spans="1:9">
+    <row r="18" ht="46.8" spans="1:9">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1947,7 +1941,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" ht="33" spans="1:9">
+    <row r="19" ht="46.8" spans="1:9">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1973,11 +1967,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" ht="33" spans="1:8">
+    <row r="20" ht="31.2" spans="1:8">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1999,11 +1993,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" ht="49.5" spans="1:9">
+    <row r="21" ht="46.8" spans="1:9">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="6" t="s">
         <v>77</v>
       </c>
@@ -2026,11 +2020,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" ht="49.5" spans="1:9">
+    <row r="22" ht="46.8" spans="1:9">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="15"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="6" t="s">
         <v>81</v>
       </c>
@@ -2053,11 +2047,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" ht="49.5" spans="1:9">
+    <row r="23" ht="46.8" spans="1:9">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="15"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="2" t="s">
         <v>84</v>
       </c>
@@ -2080,11 +2074,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" ht="49.5" spans="1:9">
+    <row r="24" ht="46.8" spans="1:9">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="15"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="2" t="s">
         <v>88</v>
       </c>
@@ -2111,7 +2105,7 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="16"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2">
